--- a/output/DESeq2/DESeq2.xlsx
+++ b/output/DESeq2/DESeq2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtello\Documents\GitHub\CellDecon\output\DESeq2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7E1258-FCBC-440C-921F-80A05ECB6782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93ADA3D-1EE3-4692-972C-C767DCDA362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{17C56A60-D8C7-4350-9633-8D7C574BE804}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{17C56A60-D8C7-4350-9633-8D7C574BE804}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardDEG" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="519">
   <si>
     <t>ENSEMBL</t>
   </si>
@@ -1586,6 +1586,15 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>Check more information in the results</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Fold Change</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1629,6 +1638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,18 +1701,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1707,13 +1723,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1723,89 +1737,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE49EDD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED973"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE49EDD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED973"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE49EDD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED973"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE49EDD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED973"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED973"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED973"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8ED973"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1850,7 +1787,7 @@
     <tableColumn id="1" xr3:uid="{C86B6569-DB7D-4CCD-9037-9DBC655FC0D6}" name="ENSEMBL"/>
     <tableColumn id="2" xr3:uid="{B4C53137-09EF-4BCD-B1BF-838ABEC4B7FF}" name="Symbol"/>
     <tableColumn id="4" xr3:uid="{1540DB19-54CE-452E-A5A2-5965BD77706D}" name="log2FoldChange"/>
-    <tableColumn id="7" xr3:uid="{2B1DFCE0-5FA3-4DF4-891B-3B532BD5B193}" name="pvalue" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{2B1DFCE0-5FA3-4DF4-891B-3B532BD5B193}" name="pvalue" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{9B23B2B6-36A7-4AFE-94F4-3377B72AD00E}" name="padj"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1858,24 +1795,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68A0E2D4-BE3F-47E6-87BD-9F458C3146B5}" name="Table1" displayName="Table1" ref="A1:E241" totalsRowShown="0">
-  <autoFilter ref="A1:E241" xr:uid="{68A0E2D4-BE3F-47E6-87BD-9F458C3146B5}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68A0E2D4-BE3F-47E6-87BD-9F458C3146B5}" name="Table1" displayName="Table1" ref="A1:F241" totalsRowShown="0">
+  <autoFilter ref="A1:F241" xr:uid="{68A0E2D4-BE3F-47E6-87BD-9F458C3146B5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E241">
-    <sortCondition sortBy="cellColor" ref="B2:B241" dxfId="4"/>
-    <sortCondition sortBy="cellColor" ref="A2:A241" dxfId="3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F241">
+    <sortCondition sortBy="cellColor" ref="B2:B241" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="A2:A241" dxfId="2"/>
     <sortCondition descending="1" ref="C2:C241"/>
     <sortCondition ref="B2:B241"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B2622163-1602-4207-9A1F-537A4C475666}" name="ENSEMBL"/>
     <tableColumn id="2" xr3:uid="{A208AB94-687C-4561-8AE2-DF78E293405F}" name="Symbol"/>
     <tableColumn id="4" xr3:uid="{8053269E-2458-4756-9D3B-D160A2C3E751}" name="log2FoldChange"/>
+    <tableColumn id="3" xr3:uid="{826D0751-E524-47C6-ABE8-2AB7B997BDDF}" name="Fold Change" dataDxfId="1">
+      <calculatedColumnFormula>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" xr3:uid="{545875EF-02CA-4946-98BE-AE773CBEC839}" name="pvalue"/>
     <tableColumn id="8" xr3:uid="{48499D61-B0BE-4C45-8A9A-2D99FEB51AE1}" name="padj"/>
   </tableColumns>
@@ -1884,14 +1825,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9E32F0F-13D7-4C55-AA2E-51678B8C6278}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11" xr:uid="{B9E32F0F-13D7-4C55-AA2E-51678B8C6278}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9E32F0F-13D7-4C55-AA2E-51678B8C6278}" name="Table3" displayName="Table3" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{B9E32F0F-13D7-4C55-AA2E-51678B8C6278}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AD12A0B6-3DC7-478F-A898-CDE4E5D1C10E}" name="Gene name"/>
     <tableColumn id="2" xr3:uid="{0C988D61-C724-4F0D-B65E-D0F625618BE7}" name="Set" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{23080BE6-0E26-4215-8AC0-2FCE60077FE2}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2217,7 +2160,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,13 +2207,13 @@
       <c r="E2">
         <v>0.04</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -2402,10 +2345,10 @@
       <c r="G9" t="s">
         <v>501</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2422,7 +2365,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2488,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5510931B-BD1F-46C9-A589-E876CE66CAA8}">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,13 +2442,14 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2516,14 +2460,17 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>397</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2533,14 +2480,18 @@
         <v>-1.10320617950433</v>
       </c>
       <c r="D2">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.1483159430249836</v>
+      </c>
+      <c r="E2">
         <v>1.3173524003287701E-3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2549,19 +2500,23 @@
       <c r="C3">
         <v>-1.2496460396604401</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.3778307657120346</v>
+      </c>
+      <c r="E3" s="1">
         <v>1.1167293916533801E-9</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2570,19 +2525,23 @@
       <c r="C4">
         <v>-1.37155801174433</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.5874984739537541</v>
+      </c>
+      <c r="E4" s="1">
         <v>6.3757495475929697E-19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>498</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2591,19 +2550,23 @@
       <c r="C5">
         <v>-1.5290813931185101</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.8860201909164975</v>
+      </c>
+      <c r="E5" s="1">
         <v>1.19149878528752E-18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>499</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2612,15 +2575,19 @@
       <c r="C6">
         <v>-1.5590304375125901</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.9465575364935144</v>
+      </c>
+      <c r="E6" s="1">
         <v>4.3310760533132798E-20</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>323</v>
       </c>
       <c r="B7" t="s">
@@ -2629,15 +2596,19 @@
       <c r="C7">
         <v>-0.70046816513353705</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6250320419888891</v>
+      </c>
+      <c r="E7" s="1">
         <v>1.3699808591151999E-5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B8" t="s">
@@ -2646,15 +2617,19 @@
       <c r="C8">
         <v>-0.73477914959500501</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6641426999041389</v>
+      </c>
+      <c r="E8" s="1">
         <v>4.7991629188201697E-5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B9" t="s">
@@ -2663,19 +2638,23 @@
       <c r="C9">
         <v>-0.76873244619265602</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7037721891963302</v>
+      </c>
+      <c r="E9" s="1">
         <v>9.1667287017777606E-6</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>497</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>339</v>
       </c>
       <c r="B10" t="s">
@@ -2684,19 +2663,23 @@
       <c r="C10">
         <v>-0.776416007071843</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7128704111441888</v>
+      </c>
+      <c r="E10" s="1">
         <v>6.6382245626442202E-5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B11" t="s">
@@ -2705,17 +2688,21 @@
       <c r="C11">
         <v>-0.83241847171878103</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7806678965704101</v>
+      </c>
+      <c r="E11" s="1">
         <v>1.95595821366773E-5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B12" t="s">
@@ -2724,15 +2711,19 @@
       <c r="C12">
         <v>-1.0275193856289699</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.0385161487393635</v>
+      </c>
+      <c r="E12" s="1">
         <v>6.7350309453475196E-6</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B13" t="s">
@@ -2741,15 +2732,19 @@
       <c r="C13">
         <v>-1.32084659933199</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.4981266132789282</v>
+      </c>
+      <c r="E13" s="1">
         <v>4.6484243210948701E-8</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B14" t="s">
@@ -2758,14 +2753,18 @@
       <c r="C14">
         <v>-1.35376282762</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.5557785337194305</v>
+      </c>
+      <c r="E14" s="1">
         <v>8.8590570389753803E-7</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2776,13 +2775,17 @@
         <v>3.7089658657108999</v>
       </c>
       <c r="D15">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>13.077055847882974</v>
+      </c>
+      <c r="E15">
         <v>9.8528214325594408E-4</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>419</v>
       </c>
@@ -2793,13 +2796,17 @@
         <v>3.4277177154485998</v>
       </c>
       <c r="D16">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>10.760831946778675</v>
+      </c>
+      <c r="E16">
         <v>2.38734036774424E-4</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -2809,14 +2816,18 @@
       <c r="C17">
         <v>2.5541182590615099</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>5.8730839465884337</v>
+      </c>
+      <c r="E17" s="1">
         <v>4.3749193269022E-5</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>385</v>
       </c>
@@ -2827,13 +2838,17 @@
         <v>2.5524526651806401</v>
       </c>
       <c r="D18">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>5.8663073737084286</v>
+      </c>
+      <c r="E18">
         <v>9.29686216380383E-4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>361</v>
       </c>
@@ -2844,13 +2859,17 @@
         <v>2.45898983810465</v>
       </c>
       <c r="D19">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>5.4983160537228031</v>
+      </c>
+      <c r="E19">
         <v>6.6268910907216205E-4</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>375</v>
       </c>
@@ -2860,14 +2879,18 @@
       <c r="C20">
         <v>2.4030742413033699</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>5.2892906012553347</v>
+      </c>
+      <c r="E20" s="1">
         <v>3.9191953362651896E-6</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -2878,13 +2901,17 @@
         <v>2.3543513182896998</v>
       </c>
       <c r="D21">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>5.1136425513136476</v>
+      </c>
+      <c r="E21">
         <v>8.5408981425036097E-4</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -2895,13 +2922,17 @@
         <v>2.3074118609088501</v>
       </c>
       <c r="D22">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>4.9499428238650038</v>
+      </c>
+      <c r="E22">
         <v>1.003999455485E-4</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>469</v>
       </c>
@@ -2912,13 +2943,17 @@
         <v>2.2653185762997001</v>
       </c>
       <c r="D23">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>4.8076056976618142</v>
+      </c>
+      <c r="E23">
         <v>1.4518949162813999E-3</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -2928,14 +2963,18 @@
       <c r="C24">
         <v>2.15571134238618</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>4.4558829711628718</v>
+      </c>
+      <c r="E24" s="1">
         <v>7.4645069547021504E-5</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>407</v>
       </c>
@@ -2945,14 +2984,18 @@
       <c r="C25">
         <v>2.0875139980336201</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>4.2501507041873214</v>
+      </c>
+      <c r="E25" s="1">
         <v>7.04276296864577E-8</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -2962,14 +3005,18 @@
       <c r="C26">
         <v>2.0480348319707602</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>4.1354227881206409</v>
+      </c>
+      <c r="E26" s="1">
         <v>1.9511664618983799E-6</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>329</v>
       </c>
@@ -2980,13 +3027,17 @@
         <v>2.01103798872919</v>
       </c>
       <c r="D27">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>4.030721176310049</v>
+      </c>
+      <c r="E27">
         <v>8.4846534471340405E-4</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -2996,14 +3047,18 @@
       <c r="C28">
         <v>1.97411438071929</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.9288698600106704</v>
+      </c>
+      <c r="E28" s="1">
         <v>2.8830153583430199E-8</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>439</v>
       </c>
@@ -3013,14 +3068,18 @@
       <c r="C29">
         <v>1.94372429171656</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.8469745668709652</v>
+      </c>
+      <c r="E29" s="1">
         <v>5.2102760412366302E-6</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -3031,13 +3090,17 @@
         <v>1.93505479958925</v>
       </c>
       <c r="D30">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.8239265163325298</v>
+      </c>
+      <c r="E30">
         <v>1.3487889921733E-3</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>411</v>
       </c>
@@ -3047,14 +3110,18 @@
       <c r="C31">
         <v>1.9284277893189501</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.8064016158678524</v>
+      </c>
+      <c r="E31" s="1">
         <v>9.6971070382299398E-5</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>367</v>
       </c>
@@ -3064,14 +3131,18 @@
       <c r="C32">
         <v>1.8762923637801501</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.6713034476568676</v>
+      </c>
+      <c r="E32" s="1">
         <v>4.3937480952964603E-6</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>357</v>
       </c>
@@ -3081,14 +3152,18 @@
       <c r="C33">
         <v>1.8629878012315699</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.6376022491745021</v>
+      </c>
+      <c r="E33" s="1">
         <v>4.9109975384713197E-5</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>431</v>
       </c>
@@ -3098,14 +3173,18 @@
       <c r="C34">
         <v>1.82953847313443</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.5542335219857351</v>
+      </c>
+      <c r="E34" s="1">
         <v>1.613189050212E-6</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>403</v>
       </c>
@@ -3115,14 +3194,18 @@
       <c r="C35">
         <v>1.8198027581682801</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.5303292939498947</v>
+      </c>
+      <c r="E35" s="1">
         <v>7.5662301894453306E-5</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>301</v>
       </c>
@@ -3132,14 +3215,18 @@
       <c r="C36">
         <v>1.8144707326635701</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.5173057076283416</v>
+      </c>
+      <c r="E36" s="1">
         <v>2.8488561459339002E-5</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>347</v>
       </c>
@@ -3149,14 +3236,18 @@
       <c r="C37">
         <v>1.8089140150915599</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.5037844278036991</v>
+      </c>
+      <c r="E37" s="1">
         <v>2.0813621774749602E-6</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>381</v>
       </c>
@@ -3167,13 +3258,17 @@
         <v>1.80080872678658</v>
       </c>
       <c r="D38">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.4841548069994905</v>
+      </c>
+      <c r="E38">
         <v>1.1764466781045001E-4</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>297</v>
       </c>
@@ -3184,13 +3279,17 @@
         <v>1.7833886603636799</v>
       </c>
       <c r="D39">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.4423377593248863</v>
+      </c>
+      <c r="E39">
         <v>2.39744490494036E-4</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>485</v>
       </c>
@@ -3201,13 +3300,17 @@
         <v>1.7666044482938299</v>
       </c>
       <c r="D40">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.4025219018134223</v>
+      </c>
+      <c r="E40">
         <v>3.5533123216004598E-4</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>391</v>
       </c>
@@ -3218,13 +3321,17 @@
         <v>1.76367059459057</v>
       </c>
       <c r="D41">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.3956095898509675</v>
+      </c>
+      <c r="E41">
         <v>4.8603050751385102E-4</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>461</v>
       </c>
@@ -3235,13 +3342,17 @@
         <v>1.7452741230851301</v>
       </c>
       <c r="D42">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.3525854950264149</v>
+      </c>
+      <c r="E42">
         <v>1.2790197602499901E-3</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>463</v>
       </c>
@@ -3251,14 +3362,18 @@
       <c r="C43">
         <v>1.73215944661787</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.3222472507527896</v>
+      </c>
+      <c r="E43" s="1">
         <v>1.28552904102508E-6</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>379</v>
       </c>
@@ -3269,13 +3384,17 @@
         <v>1.7053389080827599</v>
       </c>
       <c r="D44">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.26105530451655</v>
+      </c>
+      <c r="E44">
         <v>3.5356731588327998E-4</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>441</v>
       </c>
@@ -3285,14 +3404,18 @@
       <c r="C45">
         <v>1.6957863856989699</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.2395341936579052</v>
+      </c>
+      <c r="E45" s="1">
         <v>7.5671397582468807E-5</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>409</v>
       </c>
@@ -3303,13 +3426,17 @@
         <v>1.6891690690818599</v>
       </c>
       <c r="D46">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.224709206719218</v>
+      </c>
+      <c r="E46">
         <v>2.5611922317391399E-4</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>437</v>
       </c>
@@ -3319,14 +3446,18 @@
       <c r="C47">
         <v>1.67099277720934</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.1843364528317455</v>
+      </c>
+      <c r="E47" s="1">
         <v>3.77206215749527E-5</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>481</v>
       </c>
@@ -3336,14 +3467,18 @@
       <c r="C48">
         <v>1.66347308085166</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.1677820553619327</v>
+      </c>
+      <c r="E48" s="1">
         <v>3.7780554348066398E-7</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>371</v>
       </c>
@@ -3353,14 +3488,18 @@
       <c r="C49">
         <v>1.66336199424107</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.1675381475269266</v>
+      </c>
+      <c r="E49" s="1">
         <v>5.5913366301458803E-7</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>459</v>
       </c>
@@ -3370,14 +3509,18 @@
       <c r="C50">
         <v>1.62750681072134</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.0897857662443067</v>
+      </c>
+      <c r="E50" s="1">
         <v>9.1838296739626093E-6</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>471</v>
       </c>
@@ -3387,14 +3530,18 @@
       <c r="C51">
         <v>1.60361290827987</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>3.0390341954734099</v>
+      </c>
+      <c r="E51" s="1">
         <v>1.09296232596852E-5</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>427</v>
       </c>
@@ -3404,14 +3551,18 @@
       <c r="C52">
         <v>1.5832120426588501</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.99636223213203</v>
+      </c>
+      <c r="E52" s="1">
         <v>1.45675027697619E-5</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>455</v>
       </c>
@@ -3421,14 +3572,18 @@
       <c r="C53">
         <v>1.5554285829235199</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.939210291147917</v>
+      </c>
+      <c r="E53" s="1">
         <v>3.3017618406698302E-6</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -3439,13 +3594,17 @@
         <v>1.5449692020999</v>
       </c>
       <c r="D54">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.917978396336947</v>
+      </c>
+      <c r="E54">
         <v>3.8332792476048801E-4</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>487</v>
       </c>
@@ -3455,14 +3614,18 @@
       <c r="C55">
         <v>1.47683396714799</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.7833724402461528</v>
+      </c>
+      <c r="E55" s="1">
         <v>8.0396765103599204E-5</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -3473,13 +3636,17 @@
         <v>1.4172882747701701</v>
       </c>
       <c r="D56">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.6708302301444546</v>
+      </c>
+      <c r="E56">
         <v>6.1373852246094697E-4</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.03</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -3489,14 +3656,18 @@
       <c r="C57">
         <v>1.4117019566508</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.6605083965224448</v>
+      </c>
+      <c r="E57" s="1">
         <v>2.2890373356949601E-5</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>433</v>
       </c>
@@ -3507,13 +3678,17 @@
         <v>1.3866467155942299</v>
       </c>
       <c r="D58">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.6147023353581749</v>
+      </c>
+      <c r="E58">
         <v>3.0111767609914699E-4</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>453</v>
       </c>
@@ -3524,13 +3699,17 @@
         <v>1.28914826435593</v>
       </c>
       <c r="D59">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.4438373412114895</v>
+      </c>
+      <c r="E59">
         <v>4.7727873520698902E-4</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -3540,14 +3719,18 @@
       <c r="C60">
         <v>1.1739161274333301</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.2562331026577742</v>
+      </c>
+      <c r="E60" s="1">
         <v>9.7845385154878201E-5</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -3558,13 +3741,17 @@
         <v>1.03934730807048</v>
       </c>
       <c r="D61">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>2.0552976025284693</v>
+      </c>
+      <c r="E61">
         <v>7.4927503993738997E-4</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>0.03</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -3575,13 +3762,17 @@
         <v>0.85893907371974199</v>
       </c>
       <c r="D62">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>1.8137040619314648</v>
+      </c>
+      <c r="E62">
         <v>1.2754611087578999E-3</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>267</v>
       </c>
@@ -3592,13 +3783,17 @@
         <v>0.79626516991776897</v>
       </c>
       <c r="D63">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>1.7365996159721035</v>
+      </c>
+      <c r="E63">
         <v>1.297587742164E-3</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>383</v>
       </c>
@@ -3609,13 +3804,17 @@
         <v>0.63404835674936499</v>
       </c>
       <c r="D64">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>1.5519137252568018</v>
+      </c>
+      <c r="E64">
         <v>1.00498198358163E-3</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -3626,13 +3825,17 @@
         <v>-0.4833070292742</v>
       </c>
       <c r="D65">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.3979444458065302</v>
+      </c>
+      <c r="E65">
         <v>1.3554470371116699E-3</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -3643,13 +3846,17 @@
         <v>-0.48751635999251097</v>
       </c>
       <c r="D66">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4020291644174827</v>
+      </c>
+      <c r="E66">
         <v>5.3495066875201499E-4</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -3660,13 +3867,17 @@
         <v>-0.50256560838006703</v>
       </c>
       <c r="D67">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4167307584377491</v>
+      </c>
+      <c r="E67">
         <v>1.3412867770420001E-3</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>261</v>
       </c>
@@ -3677,13 +3888,17 @@
         <v>-0.507819211039376</v>
       </c>
       <c r="D68">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4218992164564304</v>
+      </c>
+      <c r="E68">
         <v>9.5685478874666004E-4</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>147</v>
       </c>
@@ -3694,13 +3909,17 @@
         <v>-0.52858046061075703</v>
       </c>
       <c r="D69">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4425091405330686</v>
+      </c>
+      <c r="E69">
         <v>1.4318339194518801E-3</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>225</v>
       </c>
@@ -3711,13 +3930,17 @@
         <v>-0.53448140621963902</v>
       </c>
       <c r="D70">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4484214087754095</v>
+      </c>
+      <c r="E70">
         <v>8.6800252645681801E-4</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0.04</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -3728,13 +3951,17 @@
         <v>-0.53887552522728099</v>
       </c>
       <c r="D71">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4528396941169734</v>
+      </c>
+      <c r="E71">
         <v>1.3995810177627899E-3</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -3745,13 +3972,17 @@
         <v>-0.55607761566037295</v>
       </c>
       <c r="D72">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4702664332371627</v>
+      </c>
+      <c r="E72">
         <v>6.0044356317270301E-4</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>0.03</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -3762,13 +3993,17 @@
         <v>-0.55854772508210204</v>
       </c>
       <c r="D73">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4727859052419841</v>
+      </c>
+      <c r="E73">
         <v>1.01731073245607E-3</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -3778,14 +4013,18 @@
       <c r="C74">
         <v>-0.55896570100981102</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4732126608764704</v>
+      </c>
+      <c r="E74" s="1">
         <v>8.0943747500652495E-5</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3796,13 +4035,17 @@
         <v>-0.55942918916668705</v>
       </c>
       <c r="D75">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4736860293264769</v>
+      </c>
+      <c r="E75">
         <v>1.1375752880645601E-3</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -3813,13 +4056,17 @@
         <v>-0.57111534154169996</v>
       </c>
       <c r="D76">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4856716933805738</v>
+      </c>
+      <c r="E76">
         <v>1.2361479451410899E-3</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>243</v>
       </c>
@@ -3830,13 +4077,17 @@
         <v>-0.57143666099983104</v>
       </c>
       <c r="D77">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4860026215218636</v>
+      </c>
+      <c r="E77">
         <v>6.8225071404047098E-4</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>0.03</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -3847,13 +4098,17 @@
         <v>-0.579927216559186</v>
       </c>
       <c r="D78">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.4947738359355742</v>
+      </c>
+      <c r="E78">
         <v>4.7532005887079203E-4</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>417</v>
       </c>
@@ -3864,13 +4119,17 @@
         <v>-0.59489861478880501</v>
       </c>
       <c r="D79">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5103664410229574</v>
+      </c>
+      <c r="E79">
         <v>1.15676778941227E-4</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>307</v>
       </c>
@@ -3881,13 +4140,17 @@
         <v>-0.59595272966681301</v>
       </c>
       <c r="D80">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5114704037264297</v>
+      </c>
+      <c r="E80">
         <v>1.1912145108294301E-3</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -3898,13 +4161,17 @@
         <v>-0.596005602829345</v>
       </c>
       <c r="D81">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5115257984442956</v>
+      </c>
+      <c r="E81">
         <v>1.3971959230705099E-3</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -3915,13 +4182,17 @@
         <v>-0.60296222879613404</v>
       </c>
       <c r="D82">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.518831924750101</v>
+      </c>
+      <c r="E82">
         <v>9.1100210286211905E-4</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>229</v>
       </c>
@@ -3932,13 +4203,17 @@
         <v>-0.60743268225331903</v>
       </c>
       <c r="D83">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.523545601536346</v>
+      </c>
+      <c r="E83">
         <v>1.1930687963442701E-3</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>421</v>
       </c>
@@ -3949,13 +4224,17 @@
         <v>-0.61675154078435501</v>
       </c>
       <c r="D84">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5334185534211719</v>
+      </c>
+      <c r="E84">
         <v>1.2678401508437801E-3</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>343</v>
       </c>
@@ -3966,13 +4245,17 @@
         <v>-0.62875953519230598</v>
       </c>
       <c r="D85">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5462349308530992</v>
+      </c>
+      <c r="E85">
         <v>3.2862788102401899E-4</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>0.02</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -3983,13 +4266,17 @@
         <v>-0.62885871037520802</v>
       </c>
       <c r="D86">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5463412273320198</v>
+      </c>
+      <c r="E86">
         <v>1.63334655038517E-4</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>0.01</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -4000,13 +4287,17 @@
         <v>-0.63086413640648697</v>
       </c>
       <c r="D87">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5484922219588835</v>
+      </c>
+      <c r="E87">
         <v>4.1460365353762299E-4</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>0.02</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>359</v>
       </c>
@@ -4017,13 +4308,17 @@
         <v>-0.63354717660538895</v>
       </c>
       <c r="D88">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5513746970912541</v>
+      </c>
+      <c r="E88">
         <v>2.3060344964294599E-4</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -4034,13 +4329,17 @@
         <v>-0.63587344921649203</v>
       </c>
       <c r="D89">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5538782280040044</v>
+      </c>
+      <c r="E89">
         <v>2.5313605802314201E-4</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>0.01</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -4051,13 +4350,17 @@
         <v>-0.63898076257148195</v>
       </c>
       <c r="D90">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5572286173233536</v>
+      </c>
+      <c r="E90">
         <v>8.82824698705539E-4</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>0.04</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>277</v>
       </c>
@@ -4068,13 +4371,17 @@
         <v>-0.64078939564359305</v>
       </c>
       <c r="D91">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5591820594987369</v>
+      </c>
+      <c r="E91">
         <v>7.3311903689407402E-4</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>0.03</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>435</v>
       </c>
@@ -4085,13 +4392,17 @@
         <v>-0.642035150714372</v>
       </c>
       <c r="D92">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5605289815776091</v>
+      </c>
+      <c r="E92">
         <v>7.0949051642966998E-4</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>0.03</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>349</v>
       </c>
@@ -4102,13 +4413,17 @@
         <v>-0.64272775688994699</v>
       </c>
       <c r="D93">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5612783370980281</v>
+      </c>
+      <c r="E93">
         <v>1.40737575964198E-3</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>0.05</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>239</v>
       </c>
@@ -4119,13 +4434,17 @@
         <v>-0.64936691329929697</v>
       </c>
       <c r="D94">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5684797609182479</v>
+      </c>
+      <c r="E94">
         <v>7.3408311975349104E-4</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>0.03</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>493</v>
       </c>
@@ -4136,13 +4455,17 @@
         <v>-0.65093256432739</v>
       </c>
       <c r="D95">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5701828408165248</v>
+      </c>
+      <c r="E95">
         <v>1.38269349293905E-3</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>475</v>
       </c>
@@ -4153,13 +4476,17 @@
         <v>-0.65236218050922501</v>
       </c>
       <c r="D96">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5717395602242086</v>
+      </c>
+      <c r="E96">
         <v>9.1503922270412205E-4</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>0.04</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>131</v>
       </c>
@@ -4170,13 +4497,17 @@
         <v>-0.65412388648695696</v>
       </c>
       <c r="D97">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.573660017560278</v>
+      </c>
+      <c r="E97">
         <v>1.8392827574715599E-4</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>0.01</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -4187,13 +4518,17 @@
         <v>-0.65519345781529104</v>
       </c>
       <c r="D98">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.574827115011556</v>
+      </c>
+      <c r="E98">
         <v>8.1756327423290504E-4</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>0.04</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>465</v>
       </c>
@@ -4204,13 +4539,17 @@
         <v>-0.65741744304829697</v>
       </c>
       <c r="D99">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5772566604743739</v>
+      </c>
+      <c r="E99">
         <v>3.0813292599002698E-4</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>0.02</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>377</v>
       </c>
@@ -4221,13 +4560,17 @@
         <v>-0.65807556961120794</v>
       </c>
       <c r="D100">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5779763353023277</v>
+      </c>
+      <c r="E100">
         <v>1.30292691291749E-4</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>0.01</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>141</v>
       </c>
@@ -4237,14 +4580,18 @@
       <c r="C101">
         <v>-0.66373991497835705</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5841840038498656</v>
+      </c>
+      <c r="E101" s="1">
         <v>2.0496377884023601E-5</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>125</v>
       </c>
@@ -4255,13 +4602,17 @@
         <v>-0.66532537900273703</v>
       </c>
       <c r="D102">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.585925915543688</v>
+      </c>
+      <c r="E102">
         <v>1.3115729009969799E-3</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>235</v>
       </c>
@@ -4272,13 +4623,17 @@
         <v>-0.66599685757049498</v>
       </c>
       <c r="D103">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5866642303602014</v>
+      </c>
+      <c r="E103">
         <v>2.6967066535015497E-4</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>0.01</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>251</v>
       </c>
@@ -4289,13 +4644,17 @@
         <v>-0.66741507736907002</v>
       </c>
       <c r="D104">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5882247438128831</v>
+      </c>
+      <c r="E104">
         <v>1.00776089296997E-3</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>0.04</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -4306,13 +4665,17 @@
         <v>-0.67218437436738199</v>
       </c>
       <c r="D105">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5934838245176939</v>
+      </c>
+      <c r="E105">
         <v>3.6829171762149199E-4</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>0.02</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -4323,13 +4686,17 @@
         <v>-0.67776639853478704</v>
       </c>
       <c r="D106">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5996612182347252</v>
+      </c>
+      <c r="E106">
         <v>9.7046170443779297E-4</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>0.04</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -4340,13 +4707,17 @@
         <v>-0.67777890340983904</v>
       </c>
       <c r="D107">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.5996750837085678</v>
+      </c>
+      <c r="E107">
         <v>1.30304159999633E-3</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>0.05</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>49</v>
       </c>
@@ -4357,13 +4728,17 @@
         <v>-0.68117289883387</v>
       </c>
       <c r="D108">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6034428108285304</v>
+      </c>
+      <c r="E108">
         <v>5.70136594667759E-4</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>0.03</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>299</v>
       </c>
@@ -4374,13 +4749,17 @@
         <v>-0.68275200283623405</v>
       </c>
       <c r="D109">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.605198822388739</v>
+      </c>
+      <c r="E109">
         <v>1.0360892937252501E-3</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>0.04</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>205</v>
       </c>
@@ -4391,13 +4770,17 @@
         <v>-0.68777879385076002</v>
       </c>
       <c r="D110">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6108015815025989</v>
+      </c>
+      <c r="E110">
         <v>3.3804549996741901E-4</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>0.02</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>185</v>
       </c>
@@ -4408,13 +4791,17 @@
         <v>-0.688640596270229</v>
       </c>
       <c r="D111">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6117640908105266</v>
+      </c>
+      <c r="E111">
         <v>3.8557235672968701E-4</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>0.02</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -4425,13 +4812,17 @@
         <v>-0.68938414098220302</v>
       </c>
       <c r="D112">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6125949854277621</v>
+      </c>
+      <c r="E112">
         <v>1.2824711926527901E-3</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>0.05</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>395</v>
       </c>
@@ -4442,13 +4833,17 @@
         <v>-0.69145095619986097</v>
       </c>
       <c r="D113">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6149068561250328</v>
+      </c>
+      <c r="E113">
         <v>9.2659891742475102E-4</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>0.04</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>479</v>
       </c>
@@ -4459,13 +4854,17 @@
         <v>-0.69589478156583995</v>
       </c>
       <c r="D114">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6198888014509749</v>
+      </c>
+      <c r="E114">
         <v>1.3851926389831599E-3</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>0.05</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -4476,13 +4875,17 @@
         <v>-0.69739865683532998</v>
       </c>
       <c r="D115">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6215782651209498</v>
+      </c>
+      <c r="E115">
         <v>1.7475886084604699E-4</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>0.01</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>289</v>
       </c>
@@ -4493,13 +4896,17 @@
         <v>-0.7031048477563</v>
       </c>
       <c r="D116">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6280046809625051</v>
+      </c>
+      <c r="E116">
         <v>1.43805343105063E-3</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>0.05</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>269</v>
       </c>
@@ -4510,13 +4917,17 @@
         <v>-0.70525717056642601</v>
       </c>
       <c r="D117">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6304352754901623</v>
+      </c>
+      <c r="E117">
         <v>6.7914031871142905E-4</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>0.03</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>59</v>
       </c>
@@ -4527,13 +4938,17 @@
         <v>-0.70706251621216898</v>
       </c>
       <c r="D118">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6324768307835023</v>
+      </c>
+      <c r="E118">
         <v>9.900583199684101E-4</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>0.04</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -4544,13 +4959,17 @@
         <v>-0.72006143587604898</v>
       </c>
       <c r="D119">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6472521798001802</v>
+      </c>
+      <c r="E119">
         <v>1.3437082228388801E-4</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>0.01</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>43</v>
       </c>
@@ -4560,14 +4979,18 @@
       <c r="C120">
         <v>-0.72015012554400104</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6473534477295642</v>
+      </c>
+      <c r="E120" s="1">
         <v>8.2938329707532402E-6</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>89</v>
       </c>
@@ -4578,13 +5001,17 @@
         <v>-0.72274537090636304</v>
       </c>
       <c r="D121">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6503195174529088</v>
+      </c>
+      <c r="E121">
         <v>8.33427541081518E-4</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>0.04</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>429</v>
       </c>
@@ -4595,13 +5022,17 @@
         <v>-0.72605570653051998</v>
       </c>
       <c r="D122">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6541106055360775</v>
+      </c>
+      <c r="E122">
         <v>4.7616722843018899E-4</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>0.02</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>321</v>
       </c>
@@ -4612,13 +5043,17 @@
         <v>-0.72691381861295201</v>
       </c>
       <c r="D123">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6550947598247747</v>
+      </c>
+      <c r="E123">
         <v>1.5214510262935899E-4</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>0.01</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>159</v>
       </c>
@@ -4629,13 +5064,17 @@
         <v>-0.73156922366749999</v>
       </c>
       <c r="D124">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.660444179801648</v>
+      </c>
+      <c r="E124">
         <v>1.7132475561257299E-4</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>0.01</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>67</v>
       </c>
@@ -4646,13 +5085,17 @@
         <v>-0.73255354035992504</v>
       </c>
       <c r="D125">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.661577448136762</v>
+      </c>
+      <c r="E125">
         <v>4.58105137556647E-4</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>0.02</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>401</v>
       </c>
@@ -4663,13 +5106,17 @@
         <v>-0.73484095270458605</v>
       </c>
       <c r="D126">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6642139910597313</v>
+      </c>
+      <c r="E126">
         <v>5.5441420041339002E-4</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>0.03</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>457</v>
       </c>
@@ -4680,13 +5127,17 @@
         <v>-0.73533030744078898</v>
       </c>
       <c r="D127">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6647785796316272</v>
+      </c>
+      <c r="E127">
         <v>1.16264400981084E-4</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>0.01</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>495</v>
       </c>
@@ -4697,13 +5148,17 @@
         <v>-0.73562896208787298</v>
       </c>
       <c r="D128">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6651232438268215</v>
+      </c>
+      <c r="E128">
         <v>4.83968367905005E-4</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>0.02</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -4713,14 +5168,18 @@
       <c r="C129">
         <v>-0.73809091003849603</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.667967189684427</v>
+      </c>
+      <c r="E129" s="1">
         <v>2.87681254769852E-5</v>
       </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>345</v>
       </c>
@@ -4731,13 +5190,17 @@
         <v>-0.73889424558795103</v>
       </c>
       <c r="D130">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6688962221053925</v>
+      </c>
+      <c r="E130">
         <v>1.3541881158129999E-4</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>0.01</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>93</v>
       </c>
@@ -4748,13 +5211,17 @@
         <v>-0.73978578746127799</v>
       </c>
       <c r="D131">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6699278681931233</v>
+      </c>
+      <c r="E131">
         <v>1.22790834020285E-3</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>0.05</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>425</v>
       </c>
@@ -4765,13 +5232,17 @@
         <v>-0.74426985764981901</v>
       </c>
       <c r="D132">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6751262798755047</v>
+      </c>
+      <c r="E132">
         <v>1.2465664356032499E-4</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>0.01</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>413</v>
       </c>
@@ -4782,13 +5253,17 @@
         <v>-0.74597371849509397</v>
       </c>
       <c r="D133">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6771058168490489</v>
+      </c>
+      <c r="E133">
         <v>1.11270909933859E-4</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>0.01</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>183</v>
       </c>
@@ -4799,13 +5274,17 @@
         <v>-0.74703823770605704</v>
       </c>
       <c r="D134">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6783437570476125</v>
+      </c>
+      <c r="E134">
         <v>3.9257005353716701E-4</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>0.02</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>393</v>
       </c>
@@ -4816,13 +5295,17 @@
         <v>-0.74910699018360005</v>
       </c>
       <c r="D135">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6807521443299502</v>
+      </c>
+      <c r="E135">
         <v>2.2548094648329901E-4</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>0.01</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>65</v>
       </c>
@@ -4833,13 +5316,17 @@
         <v>-0.75047526827356403</v>
       </c>
       <c r="D136">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6823469562404152</v>
+      </c>
+      <c r="E136">
         <v>1.16095552025229E-4</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>0.01</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>71</v>
       </c>
@@ -4850,13 +5337,17 @@
         <v>-0.75448484522252302</v>
       </c>
       <c r="D137">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6870290835864137</v>
+      </c>
+      <c r="E137">
         <v>1.2738750031424E-3</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>0.05</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>197</v>
       </c>
@@ -4867,13 +5358,17 @@
         <v>-0.75467385843771495</v>
       </c>
       <c r="D138">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6872501224555789</v>
+      </c>
+      <c r="E138">
         <v>1.6511636467663699E-4</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>0.01</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>281</v>
       </c>
@@ -4884,13 +5379,17 @@
         <v>-0.75630100080628404</v>
       </c>
       <c r="D139">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6891541595953288</v>
+      </c>
+      <c r="E139">
         <v>9.0092170127700202E-4</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>0.04</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -4901,13 +5400,17 @@
         <v>-0.75960809389119599</v>
       </c>
       <c r="D140">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.693030652821607</v>
+      </c>
+      <c r="E140">
         <v>7.5045405349661199E-4</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>0.03</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -4918,13 +5421,17 @@
         <v>-0.76132037593833202</v>
       </c>
       <c r="D141">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.695041241974006</v>
+      </c>
+      <c r="E141">
         <v>5.9481496625802004E-4</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>0.03</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -4935,13 +5442,17 @@
         <v>-0.76272409115163697</v>
       </c>
       <c r="D142">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6966912879092588</v>
+      </c>
+      <c r="E142">
         <v>9.3339101186012702E-4</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>0.04</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>311</v>
       </c>
@@ -4952,13 +5463,17 @@
         <v>-0.76365558806867995</v>
       </c>
       <c r="D143">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.6977871349130831</v>
+      </c>
+      <c r="E143">
         <v>2.38200283302804E-4</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>0.01</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>41</v>
       </c>
@@ -4969,13 +5484,17 @@
         <v>-0.76568235303093102</v>
       </c>
       <c r="D144">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7001739412458174</v>
+      </c>
+      <c r="E144">
         <v>1.0283664906317099E-3</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>0.04</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>263</v>
       </c>
@@ -4986,13 +5505,17 @@
         <v>-0.76760984697009205</v>
       </c>
       <c r="D145">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.702446954596712</v>
+      </c>
+      <c r="E145">
         <v>1.2573854004985501E-4</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>0.01</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>69</v>
       </c>
@@ -5003,13 +5526,17 @@
         <v>-0.77392724956340497</v>
       </c>
       <c r="D146">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7099181279787925</v>
+      </c>
+      <c r="E146">
         <v>1.09603513237436E-4</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>0.01</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>313</v>
       </c>
@@ -5020,13 +5547,17 @@
         <v>-0.77850549287970905</v>
       </c>
       <c r="D147">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7153529950230435</v>
+      </c>
+      <c r="E147">
         <v>1.07048633002211E-3</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>0.04</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>333</v>
       </c>
@@ -5037,13 +5568,17 @@
         <v>-0.77969407458215301</v>
       </c>
       <c r="D148">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.716766791574841</v>
+      </c>
+      <c r="E148">
         <v>7.09276344246984E-4</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>0.03</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>111</v>
       </c>
@@ -5053,14 +5588,18 @@
       <c r="C149">
         <v>-0.785942554572862</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7242184335044815</v>
+      </c>
+      <c r="E149" s="1">
         <v>3.5934539567168497E-5</v>
       </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>61</v>
       </c>
@@ -5071,13 +5610,17 @@
         <v>-0.78633013269354901</v>
       </c>
       <c r="D150">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7246817047392513</v>
+      </c>
+      <c r="E150">
         <v>5.2579186016946805E-4</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>0.03</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>217</v>
       </c>
@@ -5088,13 +5631,17 @@
         <v>-0.78866222466925495</v>
       </c>
       <c r="D151">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7274718778831606</v>
+      </c>
+      <c r="E151">
         <v>3.7171391900800199E-4</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>0.02</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>319</v>
       </c>
@@ -5104,14 +5651,18 @@
       <c r="C152">
         <v>-0.79605490763216802</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7363465376797247</v>
+      </c>
+      <c r="E152" s="1">
         <v>2.97694785169835E-5</v>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -5121,14 +5672,18 @@
       <c r="C153">
         <v>-0.79667606382686496</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7370942872701964</v>
+      </c>
+      <c r="E153" s="1">
         <v>1.5627989261242102E-5</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>127</v>
       </c>
@@ -5139,13 +5694,17 @@
         <v>-0.80234669503001099</v>
       </c>
       <c r="D154">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7439355150566711</v>
+      </c>
+      <c r="E154">
         <v>2.0205514252715401E-4</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>0.01</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>195</v>
       </c>
@@ -5156,13 +5715,17 @@
         <v>-0.80261683612180401</v>
       </c>
       <c r="D155">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7442620932595623</v>
+      </c>
+      <c r="E155">
         <v>6.0726103416968802E-4</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>0.03</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>123</v>
       </c>
@@ -5173,13 +5736,17 @@
         <v>-0.80455865658426096</v>
       </c>
       <c r="D156">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7466113938232917</v>
+      </c>
+      <c r="E156">
         <v>7.5125172166274398E-4</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>0.03</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>255</v>
       </c>
@@ -5190,13 +5757,17 @@
         <v>-0.816372826157578</v>
       </c>
       <c r="D157">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.760973044971667</v>
+      </c>
+      <c r="E157">
         <v>5.2032760092587396E-4</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>0.02</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>331</v>
       </c>
@@ -5207,13 +5778,17 @@
         <v>-0.82091669940990997</v>
       </c>
       <c r="D158">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7665281014467105</v>
+      </c>
+      <c r="E158">
         <v>5.0218683108022195E-4</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>95</v>
       </c>
@@ -5224,13 +5799,17 @@
         <v>-0.82193197975530796</v>
       </c>
       <c r="D159">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7677717131895778</v>
+      </c>
+      <c r="E159">
         <v>1.21463621232725E-3</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>0.05</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>271</v>
       </c>
@@ -5240,14 +5819,18 @@
       <c r="C160">
         <v>-0.82259439021242697</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7685835682978994</v>
+      </c>
+      <c r="E160" s="1">
         <v>4.78617698356157E-5</v>
       </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>423</v>
       </c>
@@ -5258,13 +5841,17 @@
         <v>-0.82305035748317001</v>
       </c>
       <c r="D161">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7691426217694839</v>
+      </c>
+      <c r="E161">
         <v>7.2530359781327496E-4</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>0.03</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>279</v>
       </c>
@@ -5274,14 +5861,18 @@
       <c r="C162">
         <v>-0.83388118881262696</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7824741925121466</v>
+      </c>
+      <c r="E162" s="1">
         <v>7.8158479110191102E-5</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>0.01</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -5291,14 +5882,18 @@
       <c r="C163">
         <v>-0.83823187456540604</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.787857651828078</v>
+      </c>
+      <c r="E163" s="1">
         <v>2.9094924458547998E-5</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>309</v>
       </c>
@@ -5309,13 +5904,17 @@
         <v>-0.83889780643306799</v>
       </c>
       <c r="D164">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7886830973834795</v>
+      </c>
+      <c r="E164">
         <v>9.9057072798754207E-4</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>0.04</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>387</v>
       </c>
@@ -5326,13 +5925,17 @@
         <v>-0.83985865799383497</v>
       </c>
       <c r="D165">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7898747777785355</v>
+      </c>
+      <c r="E165">
         <v>1.4358898103912301E-4</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>0.01</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>369</v>
       </c>
@@ -5342,14 +5945,18 @@
       <c r="C166">
         <v>-0.84154255010443901</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7919651125607028</v>
+      </c>
+      <c r="E166" s="1">
         <v>9.9168809089144E-5</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>0.01</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>77</v>
       </c>
@@ -5360,13 +5967,17 @@
         <v>-0.84504295600100598</v>
       </c>
       <c r="D167">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7963182300433174</v>
+      </c>
+      <c r="E167">
         <v>6.6864332073141204E-4</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>0.03</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>443</v>
       </c>
@@ -5377,13 +5988,17 @@
         <v>-0.84508424671083004</v>
       </c>
       <c r="D168">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.7963696423751734</v>
+      </c>
+      <c r="E168">
         <v>4.9180216208390105E-4</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>0.02</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>341</v>
       </c>
@@ -5394,13 +6009,17 @@
         <v>-0.848210802847986</v>
       </c>
       <c r="D169">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8002668906867432</v>
+      </c>
+      <c r="E169">
         <v>8.4990526271277501E-4</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>0.04</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>351</v>
       </c>
@@ -5411,13 +6030,17 @@
         <v>-0.85045646340242897</v>
       </c>
       <c r="D170">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8030713201126227</v>
+      </c>
+      <c r="E170">
         <v>9.4220669613796705E-4</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>0.04</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>353</v>
       </c>
@@ -5427,14 +6050,18 @@
       <c r="C171">
         <v>-0.85453197585707297</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8081720715586511</v>
+      </c>
+      <c r="E171" s="1">
         <v>2.4261764466841999E-5</v>
       </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>149</v>
       </c>
@@ -5444,14 +6071,18 @@
       <c r="C172">
         <v>-0.85747026808717697</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.811858472232849</v>
+      </c>
+      <c r="E172" s="1">
         <v>4.9866283748785998E-6</v>
       </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>399</v>
       </c>
@@ -5461,14 +6092,18 @@
       <c r="C173">
         <v>-0.85751496624244905</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8119146088269467</v>
+      </c>
+      <c r="E173" s="1">
         <v>8.3365412464278605E-5</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>0.01</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>219</v>
       </c>
@@ -5478,14 +6113,18 @@
       <c r="C174">
         <v>-0.86888049946970702</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8262452232086217</v>
+      </c>
+      <c r="E174" s="1">
         <v>3.4655051748437498E-5</v>
       </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>135</v>
       </c>
@@ -5496,13 +6135,17 @@
         <v>-0.87677235662208897</v>
       </c>
       <c r="D175">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8362625572010094</v>
+      </c>
+      <c r="E175">
         <v>3.9736792483673202E-4</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>0.02</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>445</v>
       </c>
@@ -5513,13 +6156,17 @@
         <v>-0.88617468476501404</v>
       </c>
       <c r="D176">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8482689239098067</v>
+      </c>
+      <c r="E176">
         <v>6.7023006403892896E-4</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>0.03</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>227</v>
       </c>
@@ -5530,13 +6177,17 @@
         <v>-0.88834100142841699</v>
       </c>
       <c r="D177">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.851046325417022</v>
+      </c>
+      <c r="E177">
         <v>7.91220777630243E-4</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>0.03</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>99</v>
       </c>
@@ -5547,13 +6198,17 @@
         <v>-0.89597268519164397</v>
       </c>
       <c r="D178">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8608640829933969</v>
+      </c>
+      <c r="E178">
         <v>2.3369118843159599E-4</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>0.01</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>285</v>
       </c>
@@ -5564,13 +6219,17 @@
         <v>-0.90007222205325299</v>
       </c>
       <c r="D179">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8661594016315188</v>
+      </c>
+      <c r="E179">
         <v>6.7433159888372703E-4</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>0.03</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>477</v>
       </c>
@@ -5581,13 +6240,17 @@
         <v>-0.91064159788223098</v>
       </c>
       <c r="D180">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8798813366990292</v>
+      </c>
+      <c r="E180">
         <v>4.3243585420985498E-4</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>0.02</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>107</v>
       </c>
@@ -5597,14 +6260,18 @@
       <c r="C181">
         <v>-0.91083315999611802</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8801309653049856</v>
+      </c>
+      <c r="E181" s="1">
         <v>2.88864347971288E-5</v>
       </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>253</v>
       </c>
@@ -5614,14 +6281,18 @@
       <c r="C182">
         <v>-0.91143185614151101</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8809113525116385</v>
+      </c>
+      <c r="E182" s="1">
         <v>1.5968778266543801E-5</v>
       </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>139</v>
       </c>
@@ -5631,14 +6302,18 @@
       <c r="C183">
         <v>-0.91286716656363298</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8827835673406459</v>
+      </c>
+      <c r="E183" s="1">
         <v>5.6931182672688798E-5</v>
       </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>247</v>
       </c>
@@ -5649,13 +6324,17 @@
         <v>-0.92381758190714203</v>
       </c>
       <c r="D184">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.8971287372499486</v>
+      </c>
+      <c r="E184">
         <v>1.0111274532591101E-4</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>75</v>
       </c>
@@ -5665,14 +6344,18 @@
       <c r="C185">
         <v>-0.93738313198802503</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9150514230543021</v>
+      </c>
+      <c r="E185" s="1">
         <v>4.9671866853681903E-6</v>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>241</v>
       </c>
@@ -5682,14 +6365,18 @@
       <c r="C186">
         <v>-0.94110198244740495</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9199942394578007</v>
+      </c>
+      <c r="E186" s="1">
         <v>4.2461747698360202E-5</v>
       </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>113</v>
       </c>
@@ -5700,13 +6387,17 @@
         <v>-0.941283044156347</v>
       </c>
       <c r="D187">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9202352184893237</v>
+      </c>
+      <c r="E187">
         <v>1.1611178630641E-4</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>0.01</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>171</v>
       </c>
@@ -5716,14 +6407,18 @@
       <c r="C188">
         <v>-0.95634992321453904</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9403944029552285</v>
+      </c>
+      <c r="E188" s="1">
         <v>9.5809026714022694E-5</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>0.01</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>363</v>
       </c>
@@ -5733,14 +6428,18 @@
       <c r="C189">
         <v>-0.95639408432971496</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9404537996328297</v>
+      </c>
+      <c r="E189" s="1">
         <v>5.4702735540413603E-5</v>
       </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>451</v>
       </c>
@@ -5751,13 +6450,17 @@
         <v>-0.95863087836501804</v>
       </c>
       <c r="D190">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9434646659874668</v>
+      </c>
+      <c r="E190">
         <v>6.4239243369652302E-4</v>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>0.03</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>213</v>
       </c>
@@ -5768,13 +6471,17 @@
         <v>-0.96407713284233099</v>
       </c>
       <c r="D191">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9508152194561861</v>
+      </c>
+      <c r="E191">
         <v>1.6717008470195E-4</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>0.01</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>305</v>
       </c>
@@ -5784,14 +6491,18 @@
       <c r="C192">
         <v>-0.96468006382884397</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9516306743692637</v>
+      </c>
+      <c r="E192" s="1">
         <v>3.7098586560098598E-5</v>
       </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>483</v>
       </c>
@@ -5801,14 +6512,18 @@
       <c r="C193">
         <v>-0.96542287741063204</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9526357870258471</v>
+      </c>
+      <c r="E193" s="1">
         <v>4.2422003805508797E-9</v>
       </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>257</v>
       </c>
@@ -5819,13 +6534,17 @@
         <v>-0.96628805290231301</v>
       </c>
       <c r="D194">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9538071220854181</v>
+      </c>
+      <c r="E194">
         <v>3.06241156119484E-4</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>0.02</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>173</v>
       </c>
@@ -5835,14 +6554,18 @@
       <c r="C195">
         <v>-0.96963206279324199</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9583410866714601</v>
+      </c>
+      <c r="E195" s="1">
         <v>1.4952161376896101E-6</v>
       </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>115</v>
       </c>
@@ -5852,14 +6575,18 @@
       <c r="C196">
         <v>-0.97534498592715402</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9661112892554904</v>
+      </c>
+      <c r="E196" s="1">
         <v>1.97315190370553E-5</v>
       </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>179</v>
       </c>
@@ -5869,14 +6596,18 @@
       <c r="C197">
         <v>-0.97626528227079101</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9673658733585695</v>
+      </c>
+      <c r="E197" s="1">
         <v>3.4266583317165797E-5</v>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -5887,13 +6618,17 @@
         <v>-0.97876440033926504</v>
       </c>
       <c r="D198">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9707768094173901</v>
+      </c>
+      <c r="E198">
         <v>4.8605956292552E-4</v>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>0.02</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>51</v>
       </c>
@@ -5904,13 +6639,17 @@
         <v>-0.98180452430806298</v>
       </c>
       <c r="D199">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9749341141747898</v>
+      </c>
+      <c r="E199">
         <v>2.3828984182298999E-4</v>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>0.01</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>293</v>
       </c>
@@ -5920,14 +6659,18 @@
       <c r="C200">
         <v>-0.98396247688569205</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9778903890608635</v>
+      </c>
+      <c r="E200" s="1">
         <v>6.74391219463075E-7</v>
       </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -5937,14 +6680,18 @@
       <c r="C201">
         <v>-0.99376799289372297</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9913792366430263</v>
+      </c>
+      <c r="E201" s="1">
         <v>1.43643043645098E-5</v>
       </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -5954,14 +6701,18 @@
       <c r="C202">
         <v>-0.99507098004859396</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-1.9931785868736087</v>
+      </c>
+      <c r="E202" s="1">
         <v>9.6927004071760293E-8</v>
       </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>129</v>
       </c>
@@ -5971,14 +6722,18 @@
       <c r="C203">
         <v>-1.0183344416173801</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.0255791244896022</v>
+      </c>
+      <c r="E203" s="1">
         <v>5.38662938664573E-5</v>
       </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>163</v>
       </c>
@@ -5988,14 +6743,18 @@
       <c r="C204">
         <v>-1.0240551640453801</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.0336271044952969</v>
+      </c>
+      <c r="E204" s="1">
         <v>2.1698015660125801E-6</v>
       </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>201</v>
       </c>
@@ -6005,14 +6764,18 @@
       <c r="C205">
         <v>-1.0303828649050299</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.042566239255474</v>
+      </c>
+      <c r="E205" s="1">
         <v>3.6377692934681999E-5</v>
       </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -6022,14 +6785,18 @@
       <c r="C206">
         <v>-1.04095933857088</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.0575954229701612</v>
+      </c>
+      <c r="E206" s="1">
         <v>9.5666698966799501E-6</v>
       </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>33</v>
       </c>
@@ -6039,14 +6806,18 @@
       <c r="C207">
         <v>-1.0497388308836999</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.070155056412363</v>
+      </c>
+      <c r="E207" s="1">
         <v>1.1236348901042999E-5</v>
       </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>249</v>
       </c>
@@ -6057,13 +6828,17 @@
         <v>-1.05700936162196</v>
       </c>
       <c r="D208">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.0806140340669068</v>
+      </c>
+      <c r="E208">
         <v>5.3301620557654795E-4</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>0.03</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>231</v>
       </c>
@@ -6074,13 +6849,17 @@
         <v>-1.07077495962415</v>
       </c>
       <c r="D209">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.1005614040795981</v>
+      </c>
+      <c r="E209">
         <v>1.9767744049907699E-4</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>0.01</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>73</v>
       </c>
@@ -6090,14 +6869,18 @@
       <c r="C210">
         <v>-1.07545756219033</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.107390341514602</v>
+      </c>
+      <c r="E210" s="1">
         <v>4.3943653620273197E-5</v>
       </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>175</v>
       </c>
@@ -6107,14 +6890,18 @@
       <c r="C211">
         <v>-1.0791850931582301</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.1128423042238524</v>
+      </c>
+      <c r="E211" s="1">
         <v>3.8354821967439704E-6</v>
       </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -6125,13 +6912,17 @@
         <v>-1.0808215049144601</v>
       </c>
       <c r="D212">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.1152402064099727</v>
+      </c>
+      <c r="E212">
         <v>1.4143532367356601E-3</v>
       </c>
-      <c r="E212">
+      <c r="F212">
         <v>0.05</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>85</v>
       </c>
@@ -6141,14 +6932,18 @@
       <c r="C213">
         <v>-1.0918226770053301</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.1314314798018321</v>
+      </c>
+      <c r="E213" s="1">
         <v>3.0718212973428897E-5</v>
       </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>335</v>
       </c>
@@ -6158,14 +6953,18 @@
       <c r="C214">
         <v>-1.0936308503407099</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.1341045421149691</v>
+      </c>
+      <c r="E214" s="1">
         <v>1.3835221441271299E-6</v>
       </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>287</v>
       </c>
@@ -6175,14 +6974,18 @@
       <c r="C215">
         <v>-1.1002820974951</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.1439661046801155</v>
+      </c>
+      <c r="E215" s="1">
         <v>4.9573242285600201E-8</v>
       </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>105</v>
       </c>
@@ -6192,14 +6995,18 @@
       <c r="C216">
         <v>-1.12215750206539</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.1767225077650152</v>
+      </c>
+      <c r="E216" s="1">
         <v>5.5124876835186997E-7</v>
       </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>47</v>
       </c>
@@ -6210,13 +7017,17 @@
         <v>-1.14000758574509</v>
       </c>
       <c r="D217">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.2038218195012358</v>
+      </c>
+      <c r="E217">
         <v>2.3570602717827899E-4</v>
       </c>
-      <c r="E217">
+      <c r="F217">
         <v>0.01</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>275</v>
       </c>
@@ -6227,13 +7038,17 @@
         <v>-1.1409337158583399</v>
       </c>
       <c r="D218">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.2052370049328207</v>
+      </c>
+      <c r="E218">
         <v>1.33361432049625E-4</v>
       </c>
-      <c r="E218">
+      <c r="F218">
         <v>0.01</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>165</v>
       </c>
@@ -6243,14 +7058,18 @@
       <c r="C219">
         <v>-1.1450359130374601</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.2115163572777199</v>
+      </c>
+      <c r="E219" s="1">
         <v>1.6724611259960999E-7</v>
       </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>151</v>
       </c>
@@ -6260,14 +7079,18 @@
       <c r="C220">
         <v>-1.1531144313161099</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.2239347055226064</v>
+      </c>
+      <c r="E220" s="1">
         <v>8.1369467878833094E-9</v>
       </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>215</v>
       </c>
@@ -6278,13 +7101,17 @@
         <v>-1.1877970065874499</v>
       </c>
       <c r="D221">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.2780462009706723</v>
+      </c>
+      <c r="E221">
         <v>7.7791919641183197E-4</v>
       </c>
-      <c r="E221">
+      <c r="F221">
         <v>0.03</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>137</v>
       </c>
@@ -6295,13 +7122,17 @@
         <v>-1.20234252630254</v>
       </c>
       <c r="D222">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.3011300587742269</v>
+      </c>
+      <c r="E222">
         <v>1.1081097904152001E-4</v>
       </c>
-      <c r="E222">
+      <c r="F222">
         <v>0.01</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>337</v>
       </c>
@@ -6311,14 +7142,18 @@
       <c r="C223">
         <v>-1.2278934841248601</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.3422474251657892</v>
+      </c>
+      <c r="E223" s="1">
         <v>2.91508861108444E-8</v>
       </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>273</v>
       </c>
@@ -6328,14 +7163,18 @@
       <c r="C224">
         <v>-1.23157409892412</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.3482306139317135</v>
+      </c>
+      <c r="E224" s="1">
         <v>1.19011261401168E-7</v>
       </c>
-      <c r="E224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>119</v>
       </c>
@@ -6345,14 +7184,18 @@
       <c r="C225">
         <v>-1.29796460153819</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.4588174033793702</v>
+      </c>
+      <c r="E225" s="1">
         <v>4.9049991133809902E-9</v>
       </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>27</v>
       </c>
@@ -6362,14 +7205,18 @@
       <c r="C226">
         <v>-1.30016382582741</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.4625684487840021</v>
+      </c>
+      <c r="E226" s="1">
         <v>1.65760918979289E-6</v>
       </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>81</v>
       </c>
@@ -6380,13 +7227,17 @@
         <v>-1.31278955991402</v>
       </c>
       <c r="D227">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.4842141748731654</v>
+      </c>
+      <c r="E227">
         <v>2.5435350142513901E-4</v>
       </c>
-      <c r="E227">
+      <c r="F227">
         <v>0.01</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -6396,14 +7247,18 @@
       <c r="C228">
         <v>-1.44158961508227</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-2.7161998167405494</v>
+      </c>
+      <c r="E228" s="1">
         <v>2.0559679001042099E-8</v>
       </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>373</v>
       </c>
@@ -6413,14 +7268,18 @@
       <c r="C229">
         <v>-1.6431850583593099</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-3.1235466104282401</v>
+      </c>
+      <c r="E229" s="1">
         <v>1.9229894636899501E-11</v>
       </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>489</v>
       </c>
@@ -6431,13 +7290,17 @@
         <v>-1.64837790182416</v>
       </c>
       <c r="D230">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-3.1348097773002159</v>
+      </c>
+      <c r="E230">
         <v>9.9308162530030507E-4</v>
       </c>
-      <c r="E230">
+      <c r="F230">
         <v>0.04</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -6447,14 +7310,18 @@
       <c r="C231">
         <v>-1.7133928571899499</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-3.2793112911969828</v>
+      </c>
+      <c r="E231" s="1">
         <v>2.0893752235176999E-11</v>
       </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>365</v>
       </c>
@@ -6464,14 +7331,18 @@
       <c r="C232">
         <v>-1.8062538933635399</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-3.4973299067312031</v>
+      </c>
+      <c r="E232" s="1">
         <v>5.4767676033350603E-7</v>
       </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>291</v>
       </c>
@@ -6481,14 +7352,18 @@
       <c r="C233">
         <v>-2.0185529043183901</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-4.0517717493794914</v>
+      </c>
+      <c r="E233" s="1">
         <v>1.0204567450090401E-8</v>
       </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>473</v>
       </c>
@@ -6498,14 +7373,18 @@
       <c r="C234">
         <v>-2.1285392421034</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-4.3727450700338544</v>
+      </c>
+      <c r="E234" s="1">
         <v>1.4472308817604301E-8</v>
       </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>355</v>
       </c>
@@ -6515,14 +7394,18 @@
       <c r="C235">
         <v>-2.2117895265898002</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-4.6324953451290236</v>
+      </c>
+      <c r="E235" s="1">
         <v>1.4231268260447801E-15</v>
       </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>449</v>
       </c>
@@ -6533,13 +7416,17 @@
         <v>-2.3142094108848101</v>
       </c>
       <c r="D236">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-4.9733205134522187</v>
+      </c>
+      <c r="E236">
         <v>5.2577707505361898E-4</v>
       </c>
-      <c r="E236">
+      <c r="F236">
         <v>0.03</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>303</v>
       </c>
@@ -6549,14 +7436,18 @@
       <c r="C237">
         <v>-2.33495665777621</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-5.0453580576757524</v>
+      </c>
+      <c r="E237" s="1">
         <v>1.5846893033109699E-11</v>
       </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>283</v>
       </c>
@@ -6566,14 +7457,18 @@
       <c r="C238">
         <v>-2.3454065768658401</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-5.0820359355758518</v>
+      </c>
+      <c r="E238" s="1">
         <v>1.01041400685605E-5</v>
       </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>221</v>
       </c>
@@ -6583,14 +7478,18 @@
       <c r="C239">
         <v>-2.3765241035011599</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-5.1928411849739176</v>
+      </c>
+      <c r="E239" s="1">
         <v>1.3055971665679901E-11</v>
       </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>315</v>
       </c>
@@ -6600,14 +7499,18 @@
       <c r="C240">
         <v>-2.8004358545094599</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-6.9665088496948053</v>
+      </c>
+      <c r="E240" s="1">
         <v>1.7174900369843999E-12</v>
       </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>295</v>
       </c>
@@ -6617,20 +7520,24 @@
       <c r="C241">
         <v>-2.8378035004246498</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241">
+        <f>POWER(2, ABS(Table1[[#This Row],[log2FoldChange]])) * SIGN(Table1[[#This Row],[log2FoldChange]])</f>
+        <v>-7.1493074745055347</v>
+      </c>
+      <c r="E241" s="1">
         <v>3.8695916373646601E-17</v>
       </c>
-      <c r="E241">
+      <c r="F241">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:D1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6651,103 +7558,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EDAF2C-21C2-4525-9960-BF1FA834D232}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>512</v>
       </c>
       <c r="B1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>511</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>504</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>506</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>510</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>505</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>507</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>508</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>514</v>
       </c>
     </row>
